--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="180">
-  <si>
-    <t>Back to Contents</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="179">
   <si>
     <t>Table 14: Digitalisation</t>
   </si>
@@ -1406,11 +1403,9 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1427,81 +1422,81 @@
     </row>
     <row r="2" spans="1:15" ht="74" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="O2" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="13">
         <v>20.68</v>
@@ -1521,34 +1516,34 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K4" s="16">
         <v>20.652000000000001</v>
@@ -1568,10 +1563,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>23</v>
       </c>
       <c r="C5" s="20">
         <v>90.2</v>
@@ -1615,10 +1610,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>25</v>
       </c>
       <c r="C6" s="20">
         <v>16.100000000000001</v>
@@ -1662,10 +1657,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="C7" s="20">
         <v>74.8</v>
@@ -1709,10 +1704,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="C8" s="20">
         <v>70.400000000000006</v>
@@ -1727,16 +1722,16 @@
         <v>40.299999999999997</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J8" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8" s="20">
         <v>23.239000000000001</v>
@@ -1756,10 +1751,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>31</v>
       </c>
       <c r="C9" s="20">
         <v>99.4</v>
@@ -1803,40 +1798,40 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="C10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" s="20">
         <v>3791.922</v>
@@ -1850,10 +1845,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="C11" s="16">
         <v>61</v>
@@ -1897,10 +1892,10 @@
     </row>
     <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>37</v>
       </c>
       <c r="C12" s="23">
         <v>82.3</v>
@@ -1927,16 +1922,16 @@
         <v>75.099999999999994</v>
       </c>
       <c r="K12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O12" s="24">
         <v>30.5</v>
@@ -1944,10 +1939,10 @@
     </row>
     <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="26" t="s">
         <v>38</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="C13" s="27">
         <v>70.599999999999994</v>
@@ -1991,10 +1986,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>41</v>
       </c>
       <c r="C14" s="20">
         <v>72.8</v>
@@ -2021,16 +2016,16 @@
         <v>67</v>
       </c>
       <c r="K14" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N14" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O14" s="21">
         <v>8.3000000000000007</v>
@@ -2038,10 +2033,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="C15" s="20">
         <v>55.4</v>
@@ -2085,10 +2080,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>44</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>45</v>
       </c>
       <c r="C16" s="20">
         <v>58</v>
@@ -2115,27 +2110,27 @@
         <v>56.8</v>
       </c>
       <c r="K16" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>46</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>47</v>
       </c>
       <c r="C17" s="13">
         <v>58.2</v>
@@ -2162,16 +2157,16 @@
         <v>24.9</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O17" s="14">
         <v>7.1</v>
@@ -2179,46 +2174,46 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="C18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" s="14">
         <v>12.9</v>
@@ -2226,10 +2221,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>51</v>
       </c>
       <c r="C19" s="16">
         <v>38.700000000000003</v>
@@ -2273,93 +2268,93 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>53</v>
-      </c>
       <c r="C20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O20" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>55</v>
-      </c>
       <c r="C21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21" s="14">
         <v>38</v>
@@ -2367,34 +2362,34 @@
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="19" t="s">
-        <v>57</v>
-      </c>
       <c r="C22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K22" s="20">
         <v>0.98299999999999998</v>
@@ -2409,15 +2404,15 @@
         <v>4.3889309450000002</v>
       </c>
       <c r="O22" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="27">
         <v>56.62</v>
@@ -2461,34 +2456,34 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="19" t="s">
-        <v>60</v>
-      </c>
       <c r="C24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I24" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K24" s="20">
         <v>17.248999999999999</v>
@@ -2508,10 +2503,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="C25" s="20">
         <v>74.900000000000006</v>
@@ -2544,10 +2539,10 @@
         <v>9.7784493529999992</v>
       </c>
       <c r="M25" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" s="21">
         <v>27.7</v>
@@ -2555,57 +2550,57 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="C26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M26" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O26" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="19" t="s">
         <v>65</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="C27" s="20">
         <v>73.599999999999994</v>
@@ -2649,10 +2644,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="C28" s="20">
         <v>79.599999999999994</v>
@@ -2696,10 +2691,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="C29" s="20">
         <v>78.3</v>
@@ -2743,34 +2738,34 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>72</v>
-      </c>
       <c r="C30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I30" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J30" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K30" s="20">
         <v>137.41300000000001</v>
@@ -2790,10 +2785,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>73</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="C31" s="20">
         <v>63.6</v>
@@ -2837,34 +2832,34 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="19" t="s">
-        <v>76</v>
-      </c>
       <c r="C32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I32" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J32" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K32" s="20">
         <v>13.334</v>
@@ -2879,62 +2874,62 @@
         <v>31.949716250000002</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B33" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="C33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J33" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M33" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="C34" s="16">
         <v>76</v>
@@ -2973,15 +2968,15 @@
         <v>95.68001529</v>
       </c>
       <c r="O34" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>82</v>
       </c>
       <c r="C35" s="20">
         <v>68.5</v>
@@ -3025,10 +3020,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>84</v>
       </c>
       <c r="C36" s="20">
         <v>83.5</v>
@@ -3072,10 +3067,10 @@
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>86</v>
       </c>
       <c r="C37" s="20">
         <v>37.1</v>
@@ -3119,10 +3114,10 @@
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C38" s="27">
         <v>70.566666666666706</v>
@@ -3166,34 +3161,34 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="B39" s="30" t="s">
-        <v>89</v>
-      </c>
       <c r="C39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K39" s="13">
         <v>89.786000000000001</v>
@@ -3213,10 +3208,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>90</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="C40" s="20">
         <v>91.7</v>
@@ -3260,46 +3255,46 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="30" t="s">
-        <v>93</v>
-      </c>
       <c r="C41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O41" s="14">
         <v>49.7</v>
@@ -3307,10 +3302,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="C42" s="13">
         <v>73</v>
@@ -3354,10 +3349,10 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="C43" s="20">
         <v>74</v>
@@ -3401,10 +3396,10 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="C44" s="20">
         <v>80.7</v>
@@ -3448,10 +3443,10 @@
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="27">
         <v>79.849999999999994</v>
@@ -3495,10 +3490,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>101</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>102</v>
       </c>
       <c r="C46" s="20">
         <v>93.6</v>
@@ -3542,34 +3537,34 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>104</v>
-      </c>
       <c r="C47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J47" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K47" s="20">
         <v>45.872999999999998</v>
@@ -3589,34 +3584,34 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="C48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J48" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K48" s="20">
         <v>9.1479999999999997</v>
@@ -3631,15 +3626,15 @@
         <v>6.1895084809999998</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>107</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="C49" s="20">
         <v>53.9</v>
@@ -3683,10 +3678,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="19" t="s">
         <v>109</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>110</v>
       </c>
       <c r="C50" s="20">
         <v>100</v>
@@ -3701,39 +3696,39 @@
         <v>22.4</v>
       </c>
       <c r="G50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J50" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M50" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N50" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>111</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>112</v>
       </c>
       <c r="C51" s="16">
         <v>75.099999999999994</v>
@@ -3777,10 +3772,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>114</v>
       </c>
       <c r="C52" s="20">
         <v>77.099999999999994</v>
@@ -3824,34 +3819,34 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="C53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K53" s="20">
         <v>10.628</v>
@@ -3866,15 +3861,15 @@
         <v>50.895015809999997</v>
       </c>
       <c r="O53" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="19" t="s">
         <v>117</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="C54" s="20">
         <v>15.5</v>
@@ -3901,10 +3896,10 @@
         <v>47.3</v>
       </c>
       <c r="K54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L54" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M54" s="20">
         <v>8.7270000000000003</v>
@@ -3918,10 +3913,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="C55" s="20">
         <v>72.099999999999994</v>
@@ -3965,10 +3960,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="19" t="s">
         <v>121</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>122</v>
       </c>
       <c r="C56" s="20">
         <v>78.099999999999994</v>
@@ -4012,10 +4007,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="C57" s="13">
         <v>69.8</v>
@@ -4059,10 +4054,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="B58" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="C58" s="20">
         <v>83</v>
@@ -4106,10 +4101,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="C59" s="20">
         <v>41.1</v>
@@ -4153,10 +4148,10 @@
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>129</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>130</v>
       </c>
       <c r="C60" s="16">
         <v>49</v>
@@ -4200,10 +4195,10 @@
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="27">
         <v>67.358333333333405</v>
@@ -4247,10 +4242,10 @@
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B62" s="32" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="33">
         <v>68.651351351351394</v>
@@ -4294,10 +4289,10 @@
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="33">
         <v>80.783333333333402</v>
@@ -4341,10 +4336,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B64" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="37">
         <v>88.981818181818198</v>
@@ -4388,10 +4383,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65" s="39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="40">
         <v>77.2</v>
@@ -4435,10 +4430,10 @@
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="43">
         <v>74.083582089552294</v>
@@ -4482,10 +4477,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B67" s="39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C67" s="40">
         <v>71.186666666666696</v>
@@ -4529,10 +4524,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B68" s="39" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C68" s="40">
         <v>72.2</v>
@@ -4576,10 +4571,10 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C69" s="40">
         <v>68.766666666666694</v>
@@ -4623,10 +4618,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="40">
         <v>57.783333333333303</v>
@@ -4670,10 +4665,10 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="40">
         <v>67.358333333333405</v>
@@ -4717,10 +4712,10 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B72" s="39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C72" s="40">
         <v>68.283333333333402</v>
@@ -4764,10 +4759,10 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B73" s="39" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C73" s="40">
         <v>69.47</v>
@@ -4811,10 +4806,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B74" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C74" s="40">
         <v>75.900000000000006</v>
@@ -4858,10 +4853,10 @@
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C75" s="43">
         <v>70.400000000000006</v>
@@ -4876,16 +4871,16 @@
         <v>40.299999999999997</v>
       </c>
       <c r="G75" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H75" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I75" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J75" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K75" s="43">
         <v>64.677999999999997</v>
@@ -4905,34 +4900,34 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F76" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I76" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J76" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K76" s="40">
         <v>26604.893561699999</v>
@@ -4952,10 +4947,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="40">
         <v>91.383333333333297</v>
@@ -4999,34 +4994,34 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="39" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I78" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J78" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K78" s="40">
         <v>313580.73463299999</v>
@@ -5046,10 +5041,10 @@
     </row>
     <row r="79" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="43">
         <v>91.9</v>
@@ -5093,10 +5088,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="40">
         <v>67</v>
@@ -5140,10 +5135,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="40">
         <v>81.257142857142895</v>
@@ -5187,10 +5182,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="40">
         <v>68.797058823529397</v>
@@ -5234,10 +5229,10 @@
     </row>
     <row r="83" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="43">
         <v>80.639130434782601</v>
@@ -5281,10 +5276,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B84" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="40">
         <v>63.310526315789502</v>
@@ -5328,10 +5323,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B85" s="39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="40">
         <v>71.25</v>
@@ -5375,10 +5370,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B86" s="39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C86" s="40">
         <v>72.811764705882396</v>
@@ -5422,10 +5417,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B87" s="39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="40">
         <v>77.2</v>
@@ -5469,10 +5464,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B88" s="39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C88" s="40">
         <v>99.4</v>
@@ -5516,10 +5511,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B89" s="39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="40">
         <v>85.16</v>
@@ -5563,34 +5558,34 @@
     </row>
     <row r="90" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F90" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I90" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J90" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K90" s="43">
         <v>444516.05002899998</v>
@@ -5610,10 +5605,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B91" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="40">
         <v>64.923076923076906</v>
@@ -5657,10 +5652,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B92" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="40">
         <v>76.06</v>
@@ -5704,34 +5699,34 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B93" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F93" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I93" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J93" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K93" s="40">
         <v>188.755</v>
@@ -5751,10 +5746,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B94" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C94" s="40">
         <v>85.9</v>
@@ -5798,10 +5793,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B95" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="40">
         <v>65.278571428571496</v>
@@ -5845,10 +5840,10 @@
     </row>
     <row r="96" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" s="43">
         <v>71.854545454545502</v>
@@ -5892,10 +5887,10 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B97" s="39" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="40">
         <v>64.435714285714297</v>
@@ -5939,10 +5934,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B98" s="39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="40">
         <v>79.966666666666697</v>
@@ -5986,10 +5981,10 @@
     </row>
     <row r="99" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B99" s="42" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C99" s="43">
         <v>68.244444444444497</v>
@@ -6050,27 +6045,27 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" s="48" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" s="48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B107" s="51" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
@@ -6078,27 +6073,27 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6108,7 +6103,6 @@
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B112" r:id="rId4"/>
     <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B1" location="Contents!A1" display="Back to Contents"/>
     <hyperlink ref="B107" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -541,6 +541,9 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
+    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+  </si>
+  <si>
     <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 17/11/2021), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
   </si>
   <si>
@@ -553,88 +556,10 @@
     <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To download all data for the </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Africa's Development Dynamics</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
-    </r>
+    <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
+  </si>
+  <si>
+    <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
   </si>
 </sst>
 </file>
@@ -646,7 +571,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -762,15 +687,6 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1390,7 +1306,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -6063,18 +5979,18 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B107" s="51" t="s">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A105" s="48" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B108" s="51"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B109" s="2" t="s">
+      <c r="B108" s="51" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="109" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B109" s="51"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
@@ -6087,25 +6003,27 @@
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>177</v>
-      </c>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="2" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1"/>
-    <hyperlink ref="B110" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
-    <hyperlink ref="B111" r:id="rId3"/>
-    <hyperlink ref="B112" r:id="rId4"/>
-    <hyperlink ref="B113" r:id="rId5"/>
-    <hyperlink ref="B107" r:id="rId6"/>
+    <hyperlink ref="B110" r:id="rId1"/>
+    <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B114" r:id="rId3"/>
+    <hyperlink ref="B113" r:id="rId4"/>
+    <hyperlink ref="B108" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
     <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
-    <t>Disclaimer: This document, as well as any data and map included herein, are without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
+    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
   </si>
   <si>
     <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 17/11/2021), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
@@ -5598,16 +5598,16 @@
         <v>48.6</v>
       </c>
       <c r="K92" s="40">
-        <v>1045.944</v>
+        <v>1039.329</v>
       </c>
       <c r="L92" s="40">
-        <v>3.8643762990833301</v>
+        <v>4.0371952110909097</v>
       </c>
       <c r="M92" s="40">
-        <v>4603.27286</v>
+        <v>4589.5648600000004</v>
       </c>
       <c r="N92" s="41">
-        <v>14.6445744771538</v>
+        <v>15.525904887333301</v>
       </c>
       <c r="O92" s="41">
         <v>28.077777777777801</v>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="9240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="179">
   <si>
     <t>Table 14: Digitalisation</t>
   </si>
@@ -34,28 +34,28 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Percentage of large firms using their own website, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of medium-sized firms using their own website, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of small firms using their own website, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of firms of all sizes using their own website, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of large firms using email to interact with clients/suppliers, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of medium-sized firms using email to interact with clients/suppliers, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of small firms using email to interact with clients/suppliers, most recent measure 2011-20</t>
-  </si>
-  <si>
-    <t>Percentage of firms of all sizes using email to interact with clients/suppliers, most recent measure 2011-20</t>
+    <t>Percentage of large firms using their own website, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using their own website, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using their own website, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using their own website, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of large firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of medium-sized firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of small firms using email to interact with clients/suppliers, most recent measure 2012-21</t>
+  </si>
+  <si>
+    <t>Percentage of firms of all sizes using email to interact with clients/suppliers, most recent measure 2012-21</t>
   </si>
   <si>
     <t>Total exports of ICT services, millions of USD, 2019</t>
@@ -2001,29 +2001,29 @@
       <c r="B16" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="20">
-        <v>58</v>
-      </c>
-      <c r="D16" s="20">
-        <v>51.8</v>
-      </c>
-      <c r="E16" s="20">
-        <v>30.7</v>
-      </c>
-      <c r="F16" s="21">
-        <v>38.1</v>
-      </c>
-      <c r="G16" s="20">
-        <v>56.4</v>
-      </c>
-      <c r="H16" s="20">
-        <v>75.2</v>
-      </c>
-      <c r="I16" s="20">
-        <v>49.6</v>
-      </c>
-      <c r="J16" s="21">
-        <v>56.8</v>
+      <c r="C16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="K16" s="20" t="s">
         <v>18</v>
@@ -2331,28 +2331,28 @@
         <v>57</v>
       </c>
       <c r="C23" s="27">
-        <v>56.62</v>
+        <v>56.274999999999999</v>
       </c>
       <c r="D23" s="27">
-        <v>33.46</v>
+        <v>28.875</v>
       </c>
       <c r="E23" s="27">
-        <v>17.18</v>
+        <v>13.8</v>
       </c>
       <c r="F23" s="28">
-        <v>22.56</v>
+        <v>18.675000000000001</v>
       </c>
       <c r="G23" s="27">
-        <v>79.92</v>
+        <v>85.8</v>
       </c>
       <c r="H23" s="27">
-        <v>69.599999999999994</v>
+        <v>68.2</v>
       </c>
       <c r="I23" s="27">
-        <v>39</v>
+        <v>36.35</v>
       </c>
       <c r="J23" s="28">
-        <v>46.9</v>
+        <v>44.424999999999997</v>
       </c>
       <c r="K23" s="27">
         <v>140.583</v>
@@ -2706,29 +2706,29 @@
       <c r="B31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="20">
-        <v>63.6</v>
-      </c>
-      <c r="D31" s="20">
-        <v>46.8</v>
-      </c>
-      <c r="E31" s="20">
-        <v>23.8</v>
-      </c>
-      <c r="F31" s="21">
-        <v>34.200000000000003</v>
-      </c>
-      <c r="G31" s="20">
-        <v>97</v>
-      </c>
-      <c r="H31" s="20">
-        <v>88.3</v>
-      </c>
-      <c r="I31" s="20">
-        <v>68</v>
-      </c>
-      <c r="J31" s="21">
-        <v>76.5</v>
+      <c r="C31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="21" t="s">
+        <v>18</v>
       </c>
       <c r="K31" s="20">
         <v>19.376000000000001</v>
@@ -3036,28 +3036,28 @@
         <v>86</v>
       </c>
       <c r="C38" s="27">
-        <v>70.566666666666706</v>
+        <v>71.4375</v>
       </c>
       <c r="D38" s="27">
-        <v>51.433333333333302</v>
+        <v>52.012500000000003</v>
       </c>
       <c r="E38" s="27">
-        <v>26.955555555555598</v>
+        <v>27.35</v>
       </c>
       <c r="F38" s="28">
-        <v>35.4</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="G38" s="27">
-        <v>86.9</v>
+        <v>85.637500000000003</v>
       </c>
       <c r="H38" s="27">
-        <v>76.244444444444497</v>
+        <v>74.737499999999997</v>
       </c>
       <c r="I38" s="27">
-        <v>52.411111111111097</v>
+        <v>50.462499999999999</v>
       </c>
       <c r="J38" s="28">
-        <v>60.5</v>
+        <v>58.5</v>
       </c>
       <c r="K38" s="27">
         <v>1241.0160000000001</v>
@@ -4164,28 +4164,28 @@
         <v>131</v>
       </c>
       <c r="C62" s="33">
-        <v>68.651351351351394</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="D62" s="33">
-        <v>47.043243243243303</v>
+        <v>46.914285714285697</v>
       </c>
       <c r="E62" s="33">
-        <v>24.486486486486498</v>
+        <v>24.328571428571401</v>
       </c>
       <c r="F62" s="34">
-        <v>33.340540540540502</v>
+        <v>33.18</v>
       </c>
       <c r="G62" s="33">
-        <v>88.3771428571429</v>
+        <v>89.084848484848493</v>
       </c>
       <c r="H62" s="33">
-        <v>76.691428571428602</v>
+        <v>76.384848484848504</v>
       </c>
       <c r="I62" s="33">
-        <v>52.56</v>
+        <v>52.181818181818201</v>
       </c>
       <c r="J62" s="34">
-        <v>60.9171428571428</v>
+        <v>60.569696969696999</v>
       </c>
       <c r="K62" s="33">
         <v>5365.7078105999999</v>
@@ -4211,28 +4211,28 @@
         <v>132</v>
       </c>
       <c r="C63" s="33">
-        <v>80.783333333333402</v>
+        <v>80.382142857142895</v>
       </c>
       <c r="D63" s="33">
-        <v>58.883333333333297</v>
+        <v>60.753571428571398</v>
       </c>
       <c r="E63" s="33">
-        <v>37.47</v>
+        <v>39.357142857142897</v>
       </c>
       <c r="F63" s="34">
-        <v>46.476666666666702</v>
+        <v>48.589285714285701</v>
       </c>
       <c r="G63" s="33">
-        <v>94.065517241379297</v>
+        <v>93.877777777777794</v>
       </c>
       <c r="H63" s="33">
-        <v>80.489655172413805</v>
+        <v>83.155555555555594</v>
       </c>
       <c r="I63" s="33">
-        <v>61.796551724137899</v>
+        <v>64.959259259259298</v>
       </c>
       <c r="J63" s="34">
-        <v>69.296551724137998</v>
+        <v>72.511111111111106</v>
       </c>
       <c r="K63" s="33">
         <v>610395.89616020001</v>
@@ -4305,28 +4305,28 @@
         <v>134</v>
       </c>
       <c r="C65" s="40">
-        <v>77.2</v>
+        <v>75.6666666666667</v>
       </c>
       <c r="D65" s="40">
-        <v>45.235714285714302</v>
+        <v>47.325000000000003</v>
       </c>
       <c r="E65" s="40">
-        <v>25.0285714285714</v>
+        <v>27.358333333333299</v>
       </c>
       <c r="F65" s="41">
-        <v>34.064285714285703</v>
+        <v>36.924999999999997</v>
       </c>
       <c r="G65" s="40">
-        <v>93.407142857142901</v>
+        <v>92.875</v>
       </c>
       <c r="H65" s="40">
-        <v>66.692857142857207</v>
+        <v>70.391666666666694</v>
       </c>
       <c r="I65" s="40">
-        <v>44.542857142857201</v>
+        <v>48.783333333333303</v>
       </c>
       <c r="J65" s="41">
-        <v>53.8857142857143</v>
+        <v>58.55</v>
       </c>
       <c r="K65" s="40">
         <v>133993.53652170001</v>
@@ -4352,28 +4352,28 @@
         <v>135</v>
       </c>
       <c r="C66" s="43">
-        <v>74.083582089552294</v>
+        <v>74.1142857142857</v>
       </c>
       <c r="D66" s="43">
-        <v>52.344776119403001</v>
+        <v>53.065079365079399</v>
       </c>
       <c r="E66" s="43">
-        <v>30.3</v>
+        <v>31.007936507936499</v>
       </c>
       <c r="F66" s="44">
-        <v>39.222388059701501</v>
+        <v>40.028571428571396</v>
       </c>
       <c r="G66" s="43">
-        <v>90.954687500000006</v>
+        <v>91.241666666666703</v>
       </c>
       <c r="H66" s="43">
-        <v>78.412499999999994</v>
+        <v>79.4316666666667</v>
       </c>
       <c r="I66" s="43">
-        <v>56.745312499999997</v>
+        <v>57.9316666666667</v>
       </c>
       <c r="J66" s="44">
-        <v>64.714062499999997</v>
+        <v>65.9433333333333</v>
       </c>
       <c r="K66" s="43">
         <v>615761.60397079994</v>
@@ -4399,28 +4399,28 @@
         <v>136</v>
       </c>
       <c r="C67" s="40">
-        <v>71.186666666666696</v>
+        <v>71.728571428571399</v>
       </c>
       <c r="D67" s="40">
-        <v>51.626666666666701</v>
+        <v>51.971428571428604</v>
       </c>
       <c r="E67" s="40">
-        <v>31.62</v>
+        <v>32.178571428571402</v>
       </c>
       <c r="F67" s="41">
-        <v>39.826666666666704</v>
+        <v>40.228571428571399</v>
       </c>
       <c r="G67" s="40">
-        <v>90.76</v>
+        <v>90.314285714285703</v>
       </c>
       <c r="H67" s="40">
-        <v>79.793333333333294</v>
+        <v>79.185714285714297</v>
       </c>
       <c r="I67" s="40">
-        <v>57.8333333333333</v>
+        <v>57.107142857142897</v>
       </c>
       <c r="J67" s="41">
-        <v>66.146666666666704</v>
+        <v>65.407142857142901</v>
       </c>
       <c r="K67" s="40">
         <v>2383.944</v>
@@ -4446,28 +4446,28 @@
         <v>137</v>
       </c>
       <c r="C68" s="40">
-        <v>72.2</v>
+        <v>72.988888888888894</v>
       </c>
       <c r="D68" s="40">
-        <v>48.831578947368399</v>
+        <v>48.6666666666667</v>
       </c>
       <c r="E68" s="40">
-        <v>25.721052631578999</v>
+        <v>25.4444444444445</v>
       </c>
       <c r="F68" s="41">
-        <v>35.836842105263202</v>
+        <v>35.711111111111101</v>
       </c>
       <c r="G68" s="40">
-        <v>89.172222222222203</v>
+        <v>91.1</v>
       </c>
       <c r="H68" s="40">
-        <v>77.327777777777797</v>
+        <v>77.452941176470603</v>
       </c>
       <c r="I68" s="40">
-        <v>53.7</v>
+        <v>53.941176470588204</v>
       </c>
       <c r="J68" s="41">
-        <v>62.3611111111111</v>
+        <v>62.688235294117703</v>
       </c>
       <c r="K68" s="40">
         <v>3870.5898106</v>
@@ -4493,28 +4493,28 @@
         <v>138</v>
       </c>
       <c r="C69" s="40">
-        <v>68.766666666666694</v>
+        <v>69.8</v>
       </c>
       <c r="D69" s="40">
-        <v>46.616666666666703</v>
+        <v>46.58</v>
       </c>
       <c r="E69" s="40">
-        <v>21.45</v>
+        <v>20.98</v>
       </c>
       <c r="F69" s="41">
-        <v>29.0833333333333</v>
+        <v>28.06</v>
       </c>
       <c r="G69" s="40">
-        <v>87.8</v>
+        <v>85.96</v>
       </c>
       <c r="H69" s="40">
-        <v>73.116666666666703</v>
+        <v>70.08</v>
       </c>
       <c r="I69" s="40">
-        <v>47.95</v>
+        <v>43.94</v>
       </c>
       <c r="J69" s="41">
-        <v>56.15</v>
+        <v>52.08</v>
       </c>
       <c r="K69" s="40">
         <v>699.79200000000003</v>
@@ -4540,28 +4540,28 @@
         <v>139</v>
       </c>
       <c r="C70" s="40">
-        <v>57.783333333333303</v>
+        <v>56.274999999999999</v>
       </c>
       <c r="D70" s="40">
-        <v>35.683333333333302</v>
+        <v>28.875</v>
       </c>
       <c r="E70" s="40">
-        <v>18.283333333333299</v>
+        <v>13.8</v>
       </c>
       <c r="F70" s="41">
-        <v>24.5</v>
+        <v>18.675000000000001</v>
       </c>
       <c r="G70" s="40">
-        <v>82.766666666666694</v>
+        <v>85.8</v>
       </c>
       <c r="H70" s="40">
-        <v>72.716666666666697</v>
+        <v>68.2</v>
       </c>
       <c r="I70" s="40">
-        <v>43.8333333333333</v>
+        <v>36.35</v>
       </c>
       <c r="J70" s="41">
-        <v>51.8333333333333</v>
+        <v>44.424999999999997</v>
       </c>
       <c r="K70" s="40">
         <v>180.63900000000001</v>
@@ -5057,28 +5057,28 @@
         <v>150</v>
       </c>
       <c r="C81" s="40">
-        <v>81.257142857142895</v>
+        <v>78.216666666666697</v>
       </c>
       <c r="D81" s="40">
-        <v>53.328571428571401</v>
+        <v>57.85</v>
       </c>
       <c r="E81" s="40">
-        <v>36.371428571428602</v>
+        <v>40.316666666666698</v>
       </c>
       <c r="F81" s="41">
-        <v>42.1</v>
+        <v>46.5833333333333</v>
       </c>
       <c r="G81" s="40">
-        <v>93.2</v>
+        <v>91.84</v>
       </c>
       <c r="H81" s="40">
-        <v>67.849999999999994</v>
+        <v>75.12</v>
       </c>
       <c r="I81" s="40">
-        <v>51.4</v>
+        <v>57.86</v>
       </c>
       <c r="J81" s="41">
-        <v>56.3</v>
+        <v>63.3</v>
       </c>
       <c r="K81" s="40">
         <v>17435.443571</v>
@@ -5104,28 +5104,28 @@
         <v>151</v>
       </c>
       <c r="C82" s="40">
-        <v>68.797058823529397</v>
+        <v>69.296875</v>
       </c>
       <c r="D82" s="40">
-        <v>47.861764705882401</v>
+        <v>47.771875000000001</v>
       </c>
       <c r="E82" s="40">
-        <v>25.3058823529412</v>
+        <v>25.184374999999999</v>
       </c>
       <c r="F82" s="41">
-        <v>34.152941176470598</v>
+        <v>34.028125000000003</v>
       </c>
       <c r="G82" s="40">
-        <v>88.621875000000003</v>
+        <v>89.4166666666667</v>
       </c>
       <c r="H82" s="40">
-        <v>78.193749999999994</v>
+        <v>77.956666666666706</v>
       </c>
       <c r="I82" s="40">
-        <v>54.087499999999999</v>
+        <v>53.773333333333397</v>
       </c>
       <c r="J82" s="41">
-        <v>62.543750000000003</v>
+        <v>62.27</v>
       </c>
       <c r="K82" s="40">
         <v>5031.2108105999996</v>
@@ -5151,28 +5151,28 @@
         <v>152</v>
       </c>
       <c r="C83" s="43">
-        <v>80.639130434782601</v>
+        <v>80.972727272727298</v>
       </c>
       <c r="D83" s="43">
-        <v>60.573913043478299</v>
+        <v>61.545454545454497</v>
       </c>
       <c r="E83" s="43">
-        <v>37.804347826087003</v>
+        <v>39.095454545454601</v>
       </c>
       <c r="F83" s="44">
-        <v>47.808695652173903</v>
+        <v>49.136363636363598</v>
       </c>
       <c r="G83" s="43">
-        <v>94.291304347826099</v>
+        <v>94.340909090909093</v>
       </c>
       <c r="H83" s="43">
-        <v>83.786956521739199</v>
+        <v>84.981818181818198</v>
       </c>
       <c r="I83" s="43">
-        <v>64.508695652173898</v>
+        <v>66.572727272727306</v>
       </c>
       <c r="J83" s="44">
-        <v>72.686956521739205</v>
+        <v>74.604545454545502</v>
       </c>
       <c r="K83" s="43">
         <v>592960.45258919999</v>
@@ -5198,28 +5198,28 @@
         <v>153</v>
       </c>
       <c r="C84" s="40">
-        <v>63.310526315789502</v>
+        <v>63.605882352941201</v>
       </c>
       <c r="D84" s="40">
-        <v>42.089473684210503</v>
+        <v>41.241176470588201</v>
       </c>
       <c r="E84" s="40">
-        <v>21.105263157894701</v>
+        <v>20.382352941176499</v>
       </c>
       <c r="F84" s="41">
-        <v>28.9526315789474</v>
+        <v>28.105882352941201</v>
       </c>
       <c r="G84" s="40">
-        <v>84.6</v>
+        <v>85.653333333333407</v>
       </c>
       <c r="H84" s="40">
-        <v>74.511764705882399</v>
+        <v>73.546666666666695</v>
       </c>
       <c r="I84" s="40">
-        <v>49.011764705882399</v>
+        <v>47.706666666666699</v>
       </c>
       <c r="J84" s="41">
-        <v>57.276470588235298</v>
+        <v>56.026666666666699</v>
       </c>
       <c r="K84" s="40">
         <v>796.76090299999998</v>
@@ -5339,28 +5339,28 @@
         <v>156</v>
       </c>
       <c r="C87" s="40">
-        <v>77.2</v>
+        <v>77.525000000000006</v>
       </c>
       <c r="D87" s="40">
-        <v>50.492307692307698</v>
+        <v>51.433333333333302</v>
       </c>
       <c r="E87" s="40">
-        <v>26.792307692307698</v>
+        <v>28.241666666666699</v>
       </c>
       <c r="F87" s="41">
-        <v>37.323076923076897</v>
+        <v>38.883333333333297</v>
       </c>
       <c r="G87" s="40">
-        <v>93.515384615384605</v>
+        <v>93.5416666666667</v>
       </c>
       <c r="H87" s="40">
-        <v>75.338461538461601</v>
+        <v>76.825000000000003</v>
       </c>
       <c r="I87" s="40">
-        <v>52.515384615384598</v>
+        <v>55.3</v>
       </c>
       <c r="J87" s="41">
-        <v>62.538461538461597</v>
+        <v>65.2083333333334</v>
       </c>
       <c r="K87" s="40">
         <v>81089.109931700004</v>
@@ -5433,28 +5433,28 @@
         <v>158</v>
       </c>
       <c r="C89" s="40">
-        <v>85.16</v>
+        <v>84.1357142857143</v>
       </c>
       <c r="D89" s="40">
-        <v>68.28</v>
+        <v>71.285714285714306</v>
       </c>
       <c r="E89" s="40">
-        <v>49.766666666666701</v>
+        <v>52.414285714285697</v>
       </c>
       <c r="F89" s="41">
-        <v>57.753333333333302</v>
+        <v>60.792857142857201</v>
       </c>
       <c r="G89" s="40">
-        <v>94.078571428571394</v>
+        <v>93.623076923076894</v>
       </c>
       <c r="H89" s="40">
-        <v>86.964285714285694</v>
+        <v>91.230769230769198</v>
       </c>
       <c r="I89" s="40">
-        <v>74.2</v>
+        <v>78.438461538461496</v>
       </c>
       <c r="J89" s="41">
-        <v>79.278571428571396</v>
+        <v>83.738461538461607</v>
       </c>
       <c r="K89" s="40">
         <v>84750.322199500006</v>
@@ -5527,28 +5527,28 @@
         <v>160</v>
       </c>
       <c r="C91" s="40">
-        <v>64.923076923076906</v>
+        <v>65.266666666666694</v>
       </c>
       <c r="D91" s="40">
-        <v>42.496153846153902</v>
+        <v>41.929166666666703</v>
       </c>
       <c r="E91" s="40">
-        <v>20.0230769230769</v>
+        <v>19.420833333333299</v>
       </c>
       <c r="F91" s="41">
-        <v>29.3115384615385</v>
+        <v>28.741666666666699</v>
       </c>
       <c r="G91" s="40">
-        <v>85.737499999999997</v>
+        <v>86.559090909090898</v>
       </c>
       <c r="H91" s="40">
-        <v>74.429166666666703</v>
+        <v>73.763636363636394</v>
       </c>
       <c r="I91" s="40">
-        <v>49.233333333333398</v>
+        <v>48.363636363636402</v>
       </c>
       <c r="J91" s="41">
-        <v>57.924999999999997</v>
+        <v>57.131818181818197</v>
       </c>
       <c r="K91" s="40">
         <v>1166.1038106000001</v>
@@ -5715,28 +5715,28 @@
         <v>164</v>
       </c>
       <c r="C95" s="40">
-        <v>65.278571428571496</v>
+        <v>66.025000000000006</v>
       </c>
       <c r="D95" s="40">
-        <v>42.8857142857143</v>
+        <v>41.816666666666698</v>
       </c>
       <c r="E95" s="40">
-        <v>24.707142857142902</v>
+        <v>24.283333333333299</v>
       </c>
       <c r="F95" s="41">
-        <v>31.678571428571399</v>
+        <v>30.933333333333302</v>
       </c>
       <c r="G95" s="40">
-        <v>84.464285714285694</v>
+        <v>85.758333333333297</v>
       </c>
       <c r="H95" s="40">
-        <v>75.992857142857204</v>
+        <v>75.033333333333402</v>
       </c>
       <c r="I95" s="40">
-        <v>52.407142857142901</v>
+        <v>51.341666666666697</v>
       </c>
       <c r="J95" s="41">
-        <v>60.121428571428602</v>
+        <v>59.033333333333402</v>
       </c>
       <c r="K95" s="40">
         <v>592.00590299999999</v>
@@ -5809,28 +5809,28 @@
         <v>166</v>
       </c>
       <c r="C97" s="40">
-        <v>64.435714285714297</v>
+        <v>64.674074074074099</v>
       </c>
       <c r="D97" s="40">
-        <v>42.4892857142857</v>
+        <v>42.144444444444503</v>
       </c>
       <c r="E97" s="40">
-        <v>22.032142857142901</v>
+        <v>21.711111111111101</v>
       </c>
       <c r="F97" s="41">
-        <v>29.342857142857099</v>
+        <v>29.018518518518501</v>
       </c>
       <c r="G97" s="40">
-        <v>85.684615384615398</v>
+        <v>86.855999999999995</v>
       </c>
       <c r="H97" s="40">
-        <v>72.784615384615407</v>
+        <v>72.688000000000002</v>
       </c>
       <c r="I97" s="40">
-        <v>47.588461538461601</v>
+        <v>47.508000000000003</v>
       </c>
       <c r="J97" s="41">
-        <v>55.826923076923102</v>
+        <v>55.787999999999997</v>
       </c>
       <c r="K97" s="40">
         <v>2079.3559030000001</v>
@@ -5856,28 +5856,28 @@
         <v>167</v>
       </c>
       <c r="C98" s="40">
-        <v>79.966666666666697</v>
+        <v>77.525000000000006</v>
       </c>
       <c r="D98" s="40">
-        <v>47.577777777777797</v>
+        <v>50.25</v>
       </c>
       <c r="E98" s="40">
-        <v>22.7</v>
+        <v>23.95</v>
       </c>
       <c r="F98" s="41">
-        <v>33.4444444444444</v>
+        <v>35.725000000000001</v>
       </c>
       <c r="G98" s="40">
-        <v>95.344444444444505</v>
+        <v>94.762500000000003</v>
       </c>
       <c r="H98" s="40">
-        <v>67.3</v>
+        <v>71.775000000000006</v>
       </c>
       <c r="I98" s="40">
-        <v>45.311111111111103</v>
+        <v>48.587499999999999</v>
       </c>
       <c r="J98" s="41">
-        <v>55.344444444444498</v>
+        <v>59.6</v>
       </c>
       <c r="K98" s="40">
         <v>3372.9580000000001</v>
@@ -5903,28 +5903,28 @@
         <v>168</v>
       </c>
       <c r="C99" s="43">
-        <v>68.244444444444497</v>
+        <v>65.242857142857204</v>
       </c>
       <c r="D99" s="43">
-        <v>41.244444444444497</v>
+        <v>41.8857142857143</v>
       </c>
       <c r="E99" s="43">
-        <v>21.322222222222202</v>
+        <v>21.214285714285701</v>
       </c>
       <c r="F99" s="44">
-        <v>26.5</v>
+        <v>26.457142857142902</v>
       </c>
       <c r="G99" s="43">
-        <v>83.755555555555603</v>
+        <v>85.342857142857198</v>
       </c>
       <c r="H99" s="43">
-        <v>66.6111111111111</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="I99" s="43">
-        <v>38.466666666666697</v>
+        <v>39.642857142857203</v>
       </c>
       <c r="J99" s="44">
-        <v>45.144444444444403</v>
+        <v>46.8857142857143</v>
       </c>
       <c r="K99" s="43">
         <v>174.739</v>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>

--- a/AfDD_2022_Annex_Table_Tab14.xlsx
+++ b/AfDD_2022_Annex_Table_Tab14.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab14" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <t>Source: Author's calculations based on World Bank Enterprise Survey (retrieved April 2020), UNCTADStat Online Data Centre (retrieved 17/11/2021), UNCTAD B2C E-Commerce Index Reports (2015-2020).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
+    <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
     <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
@@ -6021,7 +6021,7 @@
     <hyperlink ref="B111" r:id="rId2" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
     <hyperlink ref="B114" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
-    <hyperlink ref="B108" r:id="rId5"/>
+    <hyperlink ref="B108" r:id="rId5" display="If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="0" orientation="portrait" r:id="rId6"/>
